--- a/Code/Results/Cases/Case_8_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9943853430611242</v>
+        <v>0.9950064963908618</v>
       </c>
       <c r="D2">
-        <v>1.015084785100614</v>
+        <v>1.015576353422929</v>
       </c>
       <c r="E2">
-        <v>1.000987575245664</v>
+        <v>1.001653916182106</v>
       </c>
       <c r="F2">
-        <v>1.014189983822995</v>
+        <v>1.014459069860128</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040551017639558</v>
+        <v>1.040876651318734</v>
       </c>
       <c r="J2">
-        <v>1.016735294315464</v>
+        <v>1.017337595043114</v>
       </c>
       <c r="K2">
-        <v>1.026337890198068</v>
+        <v>1.026822867623463</v>
       </c>
       <c r="L2">
-        <v>1.012433168701437</v>
+        <v>1.0130902573161</v>
       </c>
       <c r="M2">
-        <v>1.025455106934856</v>
+        <v>1.025720576094521</v>
       </c>
       <c r="N2">
-        <v>1.018179175054552</v>
+        <v>1.019318208927897</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.02871830206017</v>
+        <v>1.028928406578254</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.029693273967802</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.030045079852993</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018959074883281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000281276063826</v>
+        <v>0.9998423247374071</v>
       </c>
       <c r="D3">
-        <v>1.018993583202107</v>
+        <v>1.018643077504056</v>
       </c>
       <c r="E3">
-        <v>1.005856343226601</v>
+        <v>1.005587973902314</v>
       </c>
       <c r="F3">
-        <v>1.018151903453398</v>
+        <v>1.017962004052982</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041775020991246</v>
+        <v>1.041736358994338</v>
       </c>
       <c r="J3">
-        <v>1.02076427614597</v>
+        <v>1.020337289062625</v>
       </c>
       <c r="K3">
-        <v>1.029389071395536</v>
+        <v>1.029042846815469</v>
       </c>
       <c r="L3">
-        <v>1.016414835460571</v>
+        <v>1.0161498513859</v>
       </c>
       <c r="M3">
-        <v>1.028557678189164</v>
+        <v>1.028370102558203</v>
       </c>
       <c r="N3">
-        <v>1.022213878501396</v>
+        <v>1.021000160885268</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031173815846736</v>
+        <v>1.031025360341639</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.031848085876255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031611857209276</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019481847797276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00399618608922</v>
+        <v>1.002900015714854</v>
       </c>
       <c r="D4">
-        <v>1.021458867980677</v>
+        <v>1.020584300439374</v>
       </c>
       <c r="E4">
-        <v>1.008929252786159</v>
+        <v>1.008080604213152</v>
       </c>
       <c r="F4">
-        <v>1.02066124056916</v>
+        <v>1.020187423668697</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.042533597379964</v>
+        <v>1.042268022263308</v>
       </c>
       <c r="J4">
-        <v>1.023298218487506</v>
+        <v>1.022229828585418</v>
       </c>
       <c r="K4">
-        <v>1.0313050222677</v>
+        <v>1.030440480096449</v>
       </c>
       <c r="L4">
-        <v>1.018921091044034</v>
+        <v>1.018082472030219</v>
       </c>
       <c r="M4">
-        <v>1.030516537392899</v>
+        <v>1.030048159815955</v>
       </c>
       <c r="N4">
-        <v>1.024751419331704</v>
+        <v>1.022061310725931</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032724140252003</v>
+        <v>1.032353446649195</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033203764089285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032601108971012</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.01980797617507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00554221041899</v>
+        <v>1.004174350394934</v>
       </c>
       <c r="D5">
-        <v>1.022488140165806</v>
+        <v>1.021396554751092</v>
       </c>
       <c r="E5">
-        <v>1.010210337884577</v>
+        <v>1.009121560813325</v>
       </c>
       <c r="F5">
-        <v>1.021706822007073</v>
+        <v>1.021115781017832</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042848629322786</v>
+        <v>1.042488934899969</v>
       </c>
       <c r="J5">
-        <v>1.024353698869538</v>
+        <v>1.023019431726816</v>
       </c>
       <c r="K5">
-        <v>1.032104531210665</v>
+        <v>1.031025119504437</v>
       </c>
       <c r="L5">
-        <v>1.019965525937641</v>
+        <v>1.018889258451345</v>
       </c>
       <c r="M5">
-        <v>1.031331923304857</v>
+        <v>1.030747482228846</v>
       </c>
       <c r="N5">
-        <v>1.025808398616944</v>
+        <v>1.022504039720973</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.033369470295868</v>
+        <v>1.032906919581493</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033776327791687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033022453465196</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019944488312447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00580922587239</v>
+        <v>1.00439387458524</v>
       </c>
       <c r="D6">
-        <v>1.022669346077316</v>
+        <v>1.021539879016357</v>
       </c>
       <c r="E6">
-        <v>1.010432950229084</v>
+        <v>1.009302087401561</v>
       </c>
       <c r="F6">
-        <v>1.021885443183398</v>
+        <v>1.021273918558326</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042905829870092</v>
+        <v>1.04252956641857</v>
       </c>
       <c r="J6">
-        <v>1.024538485775807</v>
+        <v>1.023157708198485</v>
       </c>
       <c r="K6">
-        <v>1.032247128695614</v>
+        <v>1.03113019891826</v>
       </c>
       <c r="L6">
-        <v>1.020148400447747</v>
+        <v>1.01903046849715</v>
       </c>
       <c r="M6">
-        <v>1.03147192364299</v>
+        <v>1.030867195630239</v>
       </c>
       <c r="N6">
-        <v>1.025993447941815</v>
+        <v>1.022581570914692</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.033480272278525</v>
+        <v>1.033001665717799</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033885975204296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033106448084525</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019969980029909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004040649817834</v>
+        <v>1.002980654403061</v>
       </c>
       <c r="D7">
-        <v>1.021497662432702</v>
+        <v>1.020651171284982</v>
       </c>
       <c r="E7">
-        <v>1.008969610499963</v>
+        <v>1.008156520696189</v>
       </c>
       <c r="F7">
-        <v>1.020685511458523</v>
+        <v>1.020227333378099</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042550732678307</v>
+        <v>1.042299366086608</v>
       </c>
       <c r="J7">
-        <v>1.023335504021147</v>
+        <v>1.022302357939727</v>
       </c>
       <c r="K7">
-        <v>1.031340455744222</v>
+        <v>1.030503663637927</v>
       </c>
       <c r="L7">
-        <v>1.018958006803017</v>
+        <v>1.018154521720622</v>
       </c>
       <c r="M7">
-        <v>1.030537609957502</v>
+        <v>1.030084689503482</v>
       </c>
       <c r="N7">
-        <v>1.02478875781508</v>
+        <v>1.022154682856226</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032740817956311</v>
+        <v>1.032382357778701</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033249108886594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032668087855017</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019829683546652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9964298640234728</v>
+        <v>0.9968265136230727</v>
       </c>
       <c r="D8">
-        <v>1.016451324678206</v>
+        <v>1.016763378252458</v>
       </c>
       <c r="E8">
-        <v>1.002679501253806</v>
+        <v>1.003160883192241</v>
       </c>
       <c r="F8">
-        <v>1.015553747771204</v>
+        <v>1.015725499387892</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.040988334962314</v>
+        <v>1.041243879474281</v>
       </c>
       <c r="J8">
-        <v>1.018142137648999</v>
+        <v>1.018527174186045</v>
       </c>
       <c r="K8">
-        <v>1.027412969646798</v>
+        <v>1.027720967436901</v>
       </c>
       <c r="L8">
-        <v>1.013823298914542</v>
+        <v>1.014298207868128</v>
       </c>
       <c r="M8">
-        <v>1.026527076016828</v>
+        <v>1.026696590034305</v>
       </c>
       <c r="N8">
-        <v>1.019588016266996</v>
+        <v>1.020145258050748</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029566707365161</v>
+        <v>1.029700868407668</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.030476632188697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.030705553665901</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019188355484276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9821595674861042</v>
+        <v>0.9852323455713947</v>
       </c>
       <c r="D9">
-        <v>1.006998545064362</v>
+        <v>1.009422290693448</v>
       </c>
       <c r="E9">
-        <v>0.99092469596439</v>
+        <v>0.9937633265118476</v>
       </c>
       <c r="F9">
-        <v>1.006051232728598</v>
+        <v>1.007385969698803</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.037946428372579</v>
+        <v>1.039116598060062</v>
       </c>
       <c r="J9">
-        <v>1.008358437863016</v>
+        <v>1.011317586315233</v>
       </c>
       <c r="K9">
-        <v>1.019979087148833</v>
+        <v>1.022364325378471</v>
       </c>
       <c r="L9">
-        <v>1.004166749960242</v>
+        <v>1.006958406368041</v>
       </c>
       <c r="M9">
-        <v>1.019046889940196</v>
+        <v>1.020360340608395</v>
       </c>
       <c r="N9">
-        <v>1.009790422505111</v>
+        <v>1.016122697292476</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.02364652450483</v>
+        <v>1.024686056920968</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.025217001689418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.026914481085022</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017910671172445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9722838057229252</v>
+        <v>0.9775088196271533</v>
       </c>
       <c r="D10">
-        <v>1.000505889058202</v>
+        <v>1.004612060948482</v>
       </c>
       <c r="E10">
-        <v>0.9828543564049679</v>
+        <v>0.9876010527685107</v>
       </c>
       <c r="F10">
-        <v>0.9997819285427796</v>
+        <v>1.002053974515911</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.035818079175589</v>
+        <v>1.037726159629235</v>
       </c>
       <c r="J10">
-        <v>1.00164193140277</v>
+        <v>1.006644105477039</v>
       </c>
       <c r="K10">
-        <v>1.014866015525292</v>
+        <v>1.018898539538083</v>
       </c>
       <c r="L10">
-        <v>0.9975402384330542</v>
+        <v>1.002197841749441</v>
       </c>
       <c r="M10">
-        <v>1.014155121453711</v>
+        <v>1.016386242584233</v>
       </c>
       <c r="N10">
-        <v>1.003064377835297</v>
+        <v>1.013739455204188</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.019827542699931</v>
+        <v>1.021593260784641</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.021618702091904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.024482638928417</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017104294742611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9700077960403148</v>
+        <v>0.9759616781623254</v>
       </c>
       <c r="D11">
-        <v>0.9992237725499533</v>
+        <v>1.003899975559995</v>
       </c>
       <c r="E11">
-        <v>0.9812441221219602</v>
+        <v>0.9866502473339217</v>
       </c>
       <c r="F11">
-        <v>1.000164764532557</v>
+        <v>1.002733518822093</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.035621486536026</v>
+        <v>1.037779370195432</v>
       </c>
       <c r="J11">
-        <v>1.000683795046438</v>
+        <v>1.006369837120113</v>
       </c>
       <c r="K11">
-        <v>1.014160342244934</v>
+        <v>1.018748716929357</v>
       </c>
       <c r="L11">
-        <v>0.9965286320029559</v>
+        <v>1.001828389462028</v>
       </c>
       <c r="M11">
-        <v>1.015083574304594</v>
+        <v>1.017604068442179</v>
       </c>
       <c r="N11">
-        <v>1.002104880815439</v>
+        <v>1.014037202632945</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.021007511806522</v>
+        <v>1.023001195038079</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.02115320784861</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.024413279240324</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017209009842533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9699320592939173</v>
+        <v>0.9759352950223253</v>
       </c>
       <c r="D12">
-        <v>0.9993364337102167</v>
+        <v>1.004049317755396</v>
       </c>
       <c r="E12">
-        <v>0.9813710169583535</v>
+        <v>0.9868168519725926</v>
       </c>
       <c r="F12">
-        <v>1.001387526843027</v>
+        <v>1.003962722966232</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.035830938565099</v>
+        <v>1.037995931692713</v>
       </c>
       <c r="J12">
-        <v>1.001065806117762</v>
+        <v>1.00679422713666</v>
       </c>
       <c r="K12">
-        <v>1.014476357654234</v>
+        <v>1.019099348254762</v>
       </c>
       <c r="L12">
-        <v>0.9968640384715105</v>
+        <v>1.002201054883716</v>
       </c>
       <c r="M12">
-        <v>1.016488192220674</v>
+        <v>1.019014395222133</v>
       </c>
       <c r="N12">
-        <v>1.002487434386302</v>
+        <v>1.014470699084316</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.022450563978981</v>
+        <v>1.024448063956055</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.021376648856928</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.024661188211399</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.0173828173407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9715605588278069</v>
+        <v>0.9770375741652361</v>
       </c>
       <c r="D13">
-        <v>1.000548802691585</v>
+        <v>1.004843912265988</v>
       </c>
       <c r="E13">
-        <v>0.982856824029974</v>
+        <v>0.9878147650623331</v>
       </c>
       <c r="F13">
-        <v>1.003363099042196</v>
+        <v>1.005701862730894</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.03638212772228</v>
+        <v>1.038345519072424</v>
       </c>
       <c r="J13">
-        <v>1.002522046929833</v>
+        <v>1.007750264550357</v>
       </c>
       <c r="K13">
-        <v>1.015621497456014</v>
+        <v>1.019835171086874</v>
       </c>
       <c r="L13">
-        <v>0.998274832642423</v>
+        <v>1.003134365795517</v>
       </c>
       <c r="M13">
-        <v>1.018382331375599</v>
+        <v>1.020676963547205</v>
       </c>
       <c r="N13">
-        <v>1.00394574322736</v>
+        <v>1.014962859702589</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.024228793439568</v>
+        <v>1.026042720797209</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.022183790855651</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.025178669828169</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017615740756094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9734449588819097</v>
+        <v>0.9783162422397816</v>
       </c>
       <c r="D14">
-        <v>1.001878633176195</v>
+        <v>1.005694247086001</v>
       </c>
       <c r="E14">
-        <v>0.9844886894560504</v>
+        <v>0.9888890324571316</v>
       </c>
       <c r="F14">
-        <v>1.005050625949554</v>
+        <v>1.007125399106148</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.036915374924791</v>
+        <v>1.038652842193722</v>
       </c>
       <c r="J14">
-        <v>1.004003062622439</v>
+        <v>1.008656753969592</v>
       </c>
       <c r="K14">
-        <v>1.016782130453709</v>
+        <v>1.020526400344478</v>
       </c>
       <c r="L14">
-        <v>0.9997265388880742</v>
+        <v>1.004040820428825</v>
       </c>
       <c r="M14">
-        <v>1.019894764022763</v>
+        <v>1.021930974593328</v>
       </c>
       <c r="N14">
-        <v>1.005428862132123</v>
+        <v>1.015333367521957</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.025599630434652</v>
+        <v>1.027209052973952</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.023005872744251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.025668977156732</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017807812293201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9742980743455996</v>
+        <v>0.9789023534134838</v>
       </c>
       <c r="D15">
-        <v>1.002460574084913</v>
+        <v>1.006065821966294</v>
       </c>
       <c r="E15">
-        <v>0.9852039002109423</v>
+        <v>0.989360305407408</v>
       </c>
       <c r="F15">
-        <v>1.005680249686327</v>
+        <v>1.007640278153276</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.037128539542222</v>
+        <v>1.038768801331559</v>
       </c>
       <c r="J15">
-        <v>1.004622769684787</v>
+        <v>1.009023360566389</v>
       </c>
       <c r="K15">
-        <v>1.017264565825819</v>
+        <v>1.020802948273919</v>
       </c>
       <c r="L15">
-        <v>1.000336836161744</v>
+        <v>1.004412638311858</v>
       </c>
       <c r="M15">
-        <v>1.020424497242352</v>
+        <v>1.022348399053605</v>
       </c>
       <c r="N15">
-        <v>1.006049449249582</v>
+        <v>1.01545752400448</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.02605623653737</v>
+        <v>1.027576849909156</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.023352948238703</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.0258710296083</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017876072735439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9781213396245564</v>
+        <v>0.9816166951972338</v>
       </c>
       <c r="D16">
-        <v>1.004941181006894</v>
+        <v>1.007679574748927</v>
       </c>
       <c r="E16">
-        <v>0.988285882677355</v>
+        <v>0.9914420767880632</v>
       </c>
       <c r="F16">
-        <v>1.007969176293442</v>
+        <v>1.009457733608028</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.037921921113214</v>
+        <v>1.039173989746503</v>
       </c>
       <c r="J16">
-        <v>1.007151062014511</v>
+        <v>1.010499965274144</v>
       </c>
       <c r="K16">
-        <v>1.019185373076295</v>
+        <v>1.021875268260773</v>
       </c>
       <c r="L16">
-        <v>1.002832599527637</v>
+        <v>1.005930447850322</v>
       </c>
       <c r="M16">
-        <v>1.022159760769578</v>
+        <v>1.02362211749602</v>
       </c>
       <c r="N16">
-        <v>1.008581332044413</v>
+        <v>1.015874980149861</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.027388672063717</v>
+        <v>1.028544523430469</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.024714275058908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.02663271775387</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018089188344447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9800848361202861</v>
+        <v>0.9830864053379692</v>
       </c>
       <c r="D17">
-        <v>1.006161129399014</v>
+        <v>1.008516425079699</v>
       </c>
       <c r="E17">
-        <v>0.9898130195896293</v>
+        <v>0.9925308767724671</v>
       </c>
       <c r="F17">
-        <v>1.008852758308252</v>
+        <v>1.010133108729427</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.038254165982885</v>
+        <v>1.039340992702378</v>
       </c>
       <c r="J17">
-        <v>1.008330438210565</v>
+        <v>1.011210431208458</v>
       </c>
       <c r="K17">
-        <v>1.020061987249165</v>
+        <v>1.022376760281065</v>
       </c>
       <c r="L17">
-        <v>1.004002052613491</v>
+        <v>1.006671146575964</v>
       </c>
       <c r="M17">
-        <v>1.022707326878662</v>
+        <v>1.023965770326545</v>
       </c>
       <c r="N17">
-        <v>1.009762383089942</v>
+        <v>1.016082703564551</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.027691109209812</v>
+        <v>1.028685887599988</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.025336713460869</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.026990167834568</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018164281994152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9805525945422093</v>
+        <v>0.9834881412722091</v>
       </c>
       <c r="D18">
-        <v>1.006346086099228</v>
+        <v>1.008653798181138</v>
       </c>
       <c r="E18">
-        <v>0.9900667365272519</v>
+        <v>0.9927340002935768</v>
       </c>
       <c r="F18">
-        <v>1.008420704080732</v>
+        <v>1.009677124364418</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.038191743414713</v>
+        <v>1.039267017533653</v>
       </c>
       <c r="J18">
-        <v>1.008370982705176</v>
+        <v>1.011189794602784</v>
       </c>
       <c r="K18">
-        <v>1.020056169613669</v>
+        <v>1.022324809185684</v>
       </c>
       <c r="L18">
-        <v>1.004059162574258</v>
+        <v>1.006679344213832</v>
       </c>
       <c r="M18">
-        <v>1.022095651190529</v>
+        <v>1.02333088287196</v>
       </c>
       <c r="N18">
-        <v>1.009802985162386</v>
+        <v>1.015987635532526</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.026966988618189</v>
+        <v>1.027943626149465</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.025320791765294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.026940513249903</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018090716686639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9796697611487203</v>
+        <v>0.982884026785663</v>
       </c>
       <c r="D19">
-        <v>1.005619739813539</v>
+        <v>1.008149562555553</v>
       </c>
       <c r="E19">
-        <v>0.9891789401920444</v>
+        <v>0.9921049084423826</v>
       </c>
       <c r="F19">
-        <v>1.006699689592097</v>
+        <v>1.008082672249802</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.03779211395035</v>
+        <v>1.038977006844352</v>
       </c>
       <c r="J19">
-        <v>1.007384185309198</v>
+        <v>1.01047111103048</v>
       </c>
       <c r="K19">
-        <v>1.01927814244436</v>
+        <v>1.021765294328077</v>
       </c>
       <c r="L19">
-        <v>1.003121548325539</v>
+        <v>1.005996043830009</v>
       </c>
       <c r="M19">
-        <v>1.020339842722386</v>
+        <v>1.021699528715505</v>
       </c>
       <c r="N19">
-        <v>1.008814786400919</v>
+        <v>1.015561176660979</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.025248276289416</v>
+        <v>1.026323674777512</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.024777181538336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.026552025108952</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017884870992741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9749371181424991</v>
+        <v>0.9794212898155479</v>
       </c>
       <c r="D20">
-        <v>1.002274042836629</v>
+        <v>1.005800866699182</v>
       </c>
       <c r="E20">
-        <v>0.9850323828303507</v>
+        <v>0.9891085373549384</v>
       </c>
       <c r="F20">
-        <v>1.00145706259148</v>
+        <v>1.003406349251213</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.036417707816805</v>
+        <v>1.038062675348599</v>
       </c>
       <c r="J20">
-        <v>1.003469570390449</v>
+        <v>1.007769200938678</v>
       </c>
       <c r="K20">
-        <v>1.016277023454669</v>
+        <v>1.019742476051148</v>
       </c>
       <c r="L20">
-        <v>0.99934362660658</v>
+        <v>1.003345642272625</v>
       </c>
       <c r="M20">
-        <v>1.015474339605064</v>
+        <v>1.017389565399893</v>
       </c>
       <c r="N20">
-        <v>1.004894612279972</v>
+        <v>1.014171477972784</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.020860798363458</v>
+        <v>1.022376533923475</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.022659224420893</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.025126183053723</v>
+      </c>
+      <c r="S20">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T20">
+        <v>1.017295503249677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9670205581248796</v>
+        <v>0.9740383190535429</v>
       </c>
       <c r="D21">
-        <v>0.9970389059298442</v>
+        <v>1.002554751427849</v>
       </c>
       <c r="E21">
-        <v>0.9785318069704524</v>
+        <v>0.9849231621639746</v>
       </c>
       <c r="F21">
-        <v>0.9961030019378083</v>
+        <v>0.9991609597241128</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.034631808312454</v>
+        <v>1.037191490728159</v>
       </c>
       <c r="J21">
-        <v>0.9979649116545283</v>
+        <v>1.004663069614446</v>
       </c>
       <c r="K21">
-        <v>1.012076595141769</v>
+        <v>1.017487884368709</v>
       </c>
       <c r="L21">
-        <v>0.9939316439953279</v>
+        <v>1.000195912449715</v>
       </c>
       <c r="M21">
-        <v>1.011158582181038</v>
+        <v>1.014158245435135</v>
       </c>
       <c r="N21">
-        <v>0.999382136297253</v>
+        <v>1.013254959020797</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.017403278231206</v>
+        <v>1.019777385728602</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.019692582866565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.023535688634569</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.016820439699138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9619805792134845</v>
+        <v>0.9706365856233066</v>
       </c>
       <c r="D22">
-        <v>0.9937149067353471</v>
+        <v>1.000522063533592</v>
       </c>
       <c r="E22">
-        <v>0.9744118717942652</v>
+        <v>0.9823023198488127</v>
       </c>
       <c r="F22">
-        <v>0.9928357866004806</v>
+        <v>0.9966113186043506</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.033491163880406</v>
+        <v>1.036646533815968</v>
       </c>
       <c r="J22">
-        <v>0.9944851787471952</v>
+        <v>1.002721944720168</v>
       </c>
       <c r="K22">
-        <v>1.009411909306028</v>
+        <v>1.016083185332997</v>
       </c>
       <c r="L22">
-        <v>0.9905078676650854</v>
+        <v>0.9982327171565174</v>
       </c>
       <c r="M22">
-        <v>1.008550516591062</v>
+        <v>1.01225020616704</v>
       </c>
       <c r="N22">
-        <v>0.9958974617700606</v>
+        <v>1.012647664202454</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.015339096921256</v>
+        <v>1.018267253756085</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.017794684093147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.022527455545747</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.0165295799692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9646425476256026</v>
+        <v>0.9723431141112776</v>
       </c>
       <c r="D23">
-        <v>0.9954606837100126</v>
+        <v>1.00151167494993</v>
       </c>
       <c r="E23">
-        <v>0.9765825488353636</v>
+        <v>0.9835923832939331</v>
       </c>
       <c r="F23">
-        <v>0.9945649656923415</v>
+        <v>0.9979220036735137</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.034086687141053</v>
+        <v>1.036890152264115</v>
       </c>
       <c r="J23">
-        <v>0.9963164676703101</v>
+        <v>1.003655911650867</v>
       </c>
       <c r="K23">
-        <v>1.010807694459289</v>
+        <v>1.016741125949871</v>
       </c>
       <c r="L23">
-        <v>0.9923086867304164</v>
+        <v>0.9991755064956281</v>
       </c>
       <c r="M23">
-        <v>1.009929538158888</v>
+        <v>1.01322096990379</v>
       </c>
       <c r="N23">
-        <v>0.997731351333498</v>
+        <v>1.012845510794805</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.016430539044951</v>
+        <v>1.019035572415854</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.018771755879442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.022981915166536</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01665119120974</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9748225621261177</v>
+        <v>0.9793424335889246</v>
       </c>
       <c r="D24">
-        <v>1.002166804364305</v>
+        <v>1.005721627432022</v>
       </c>
       <c r="E24">
-        <v>0.984910453884421</v>
+        <v>0.9890197835875049</v>
       </c>
       <c r="F24">
-        <v>1.00121051387778</v>
+        <v>1.003176887464307</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.036353244313104</v>
+        <v>1.038012487934979</v>
       </c>
       <c r="J24">
-        <v>1.003325470313116</v>
+        <v>1.007659542122807</v>
       </c>
       <c r="K24">
-        <v>1.016155975041352</v>
+        <v>1.019649004430372</v>
       </c>
       <c r="L24">
-        <v>0.9992078441391425</v>
+        <v>1.003242507590322</v>
       </c>
       <c r="M24">
-        <v>1.015216404832323</v>
+        <v>1.017148442146434</v>
       </c>
       <c r="N24">
-        <v>1.004750307564001</v>
+        <v>1.014101925208055</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.020614872437047</v>
+        <v>1.022143992453406</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.02254573474466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.025029587893933</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017259115720302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9859946268865939</v>
+        <v>0.9882697511261203</v>
       </c>
       <c r="D25">
-        <v>1.009550424450674</v>
+        <v>1.011347668296166</v>
       </c>
       <c r="E25">
-        <v>0.994084460928596</v>
+        <v>0.9962153362309119</v>
       </c>
       <c r="F25">
-        <v>1.008582031179405</v>
+        <v>1.00956947638013</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.038788302685752</v>
+        <v>1.039683192449766</v>
       </c>
       <c r="J25">
-        <v>1.011002698614975</v>
+        <v>1.013198437984403</v>
       </c>
       <c r="K25">
-        <v>1.022002269621036</v>
+        <v>1.023772343789217</v>
       </c>
       <c r="L25">
-        <v>1.006775307420051</v>
+        <v>1.008872689722924</v>
       </c>
       <c r="M25">
-        <v>1.021048567112681</v>
+        <v>1.022021032888254</v>
       </c>
       <c r="N25">
-        <v>1.012438438410639</v>
+        <v>1.017110185535044</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.025230754140532</v>
+        <v>1.026000411934977</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.026676576215481</v>
+        <v>1.027941835149501</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018248098104059</v>
       </c>
     </row>
   </sheetData>
